--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme HDG/alarme 1 back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CEAEC-D5AB-8C43-8038-8B10B45FE0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B54612-035A-8245-9641-997E376613B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="2340" windowWidth="20560" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="720" windowWidth="20560" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
   <si>
     <t>ordre</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,7 +391,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,8 +452,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>SUM(C:C)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -484,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -498,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -512,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -529,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -543,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -574,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -588,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -602,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -616,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -866,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -894,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -908,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -922,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -936,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -950,45 +954,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
     </row>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme HDG/alarme 1 back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CEAEC-D5AB-8C43-8038-8B10B45FE0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB933EB1-9E94-884E-9039-AE6C5B74CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="2340" windowWidth="20560" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="720" windowWidth="20560" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
   <si>
     <t>ordre</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="139" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,7 +391,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,8 +452,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>SUM(C:C)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -484,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -498,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -512,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -529,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -543,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -574,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -588,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -602,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -616,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -866,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -894,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -908,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -922,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -936,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -950,45 +954,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
     </row>
